--- a/data-raw/Presupuesto PC.xlsx
+++ b/data-raw/Presupuesto PC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Allan\Documents\Git\Testing_repo\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8976A507-D7E8-43C7-B18A-FB06D63333AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2DA012-1581-41B5-8E01-387131251805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="7" xr2:uid="{8D9E2E17-DEC7-4B78-BFDD-9F2DE1D101B3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="662" activeTab="9" xr2:uid="{8D9E2E17-DEC7-4B78-BFDD-9F2DE1D101B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Ensambles" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,8 @@
     <sheet name="Fuente de poder" sheetId="5" r:id="rId6"/>
     <sheet name="Disipador" sheetId="8" r:id="rId7"/>
     <sheet name="Tarjeta gráfica" sheetId="9" r:id="rId8"/>
+    <sheet name="Pasta térmica" sheetId="11" r:id="rId9"/>
+    <sheet name="Gabinetes" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="43">
   <si>
     <t>Precio</t>
   </si>
@@ -148,6 +150,30 @@
   </si>
   <si>
     <t>id_GPU</t>
+  </si>
+  <si>
+    <t>id_pasta termica</t>
+  </si>
+  <si>
+    <t>Thermal Grizzly</t>
+  </si>
+  <si>
+    <t>Kryonaut</t>
+  </si>
+  <si>
+    <t>id_gabinete</t>
+  </si>
+  <si>
+    <t>Corsair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carbide 175R </t>
+  </si>
+  <si>
+    <t>Spectrix S40G</t>
+  </si>
+  <si>
+    <t>CX650M</t>
   </si>
 </sst>
 </file>
@@ -499,22 +525,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46662DF8-4627-431D-B609-218377683739}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -539,8 +567,14 @@
       <c r="H1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -559,8 +593,14 @@
       <c r="F2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -582,8 +622,14 @@
       <c r="H3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -594,16 +640,65 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4">
         <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC19BF1B-512B-455D-A2C4-FFBDBE9C6829}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2">
+        <v>1339</v>
       </c>
     </row>
   </sheetData>
@@ -616,7 +711,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,7 +745,7 @@
         <v>11</v>
       </c>
       <c r="D2">
-        <v>2232</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -678,7 +773,7 @@
         <v>13</v>
       </c>
       <c r="D4">
-        <v>7139</v>
+        <v>6589</v>
       </c>
     </row>
   </sheetData>
@@ -688,10 +783,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE5EE3FC-6D6F-4742-890F-10E911C2474B}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,7 +795,7 @@
     <col min="2" max="4" width="17.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -714,7 +809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -728,7 +823,7 @@
         <v>2599</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -742,7 +837,7 @@
         <v>5516</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -753,7 +848,10 @@
         <v>16</v>
       </c>
       <c r="D4">
-        <v>6529</v>
+        <v>6729</v>
+      </c>
+      <c r="E4">
+        <v>8289</v>
       </c>
     </row>
   </sheetData>
@@ -763,10 +861,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6726207-6C2E-4711-8BE6-238D89A1FD15}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,7 +874,7 @@
     <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -790,7 +888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -801,10 +899,13 @@
         <v>19</v>
       </c>
       <c r="D2">
+        <v>1179</v>
+      </c>
+      <c r="E2">
         <v>1499</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -816,6 +917,20 @@
       </c>
       <c r="D3">
         <v>2669</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4">
+        <v>1369</v>
       </c>
     </row>
   </sheetData>
@@ -828,7 +943,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -876,7 +991,7 @@
         <v>23</v>
       </c>
       <c r="D3">
-        <v>1879</v>
+        <v>1259</v>
       </c>
     </row>
   </sheetData>
@@ -886,10 +1001,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E04BEE-CCC2-4AFE-8172-B10B0C76AC20}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -922,6 +1037,20 @@
         <v>24</v>
       </c>
       <c r="D2">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3">
         <v>949</v>
       </c>
     </row>
@@ -932,6 +1061,49 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16AAA772-630F-430E-AF83-D263AB52265C}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2">
+        <v>999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0311FED-E502-43A6-A5ED-35089023F444}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -959,13 +1131,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D2">
-        <v>999</v>
+        <v>12509</v>
       </c>
     </row>
   </sheetData>
@@ -973,15 +1145,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0311FED-E502-43A6-A5ED-35089023F444}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B73A3108-9F90-49D9-B1DE-7C581DEFA9E4}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1002,13 +1177,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D2">
-        <v>12509</v>
+        <v>739</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/Presupuesto PC.xlsx
+++ b/data-raw/Presupuesto PC.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Allan\Documents\Git\Testing_repo\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2DA012-1581-41B5-8E01-387131251805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC9283B-4017-4DC3-8030-AFB5E506637B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="662" activeTab="9" xr2:uid="{8D9E2E17-DEC7-4B78-BFDD-9F2DE1D101B3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="662" xr2:uid="{8D9E2E17-DEC7-4B78-BFDD-9F2DE1D101B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Ensambles" sheetId="1" r:id="rId1"/>
     <sheet name="CPU" sheetId="2" r:id="rId2"/>
     <sheet name="Motherboard" sheetId="3" r:id="rId3"/>
     <sheet name="Almacenamiento" sheetId="4" r:id="rId4"/>
-    <sheet name="RAM" sheetId="6" r:id="rId5"/>
-    <sheet name="Fuente de poder" sheetId="5" r:id="rId6"/>
-    <sheet name="Disipador" sheetId="8" r:id="rId7"/>
-    <sheet name="Tarjeta gráfica" sheetId="9" r:id="rId8"/>
-    <sheet name="Pasta térmica" sheetId="11" r:id="rId9"/>
-    <sheet name="Gabinetes" sheetId="12" r:id="rId10"/>
+    <sheet name="Secundario" sheetId="13" r:id="rId5"/>
+    <sheet name="RAM" sheetId="6" r:id="rId6"/>
+    <sheet name="Fuente de poder" sheetId="5" r:id="rId7"/>
+    <sheet name="Disipador" sheetId="8" r:id="rId8"/>
+    <sheet name="Tarjeta gráfica" sheetId="9" r:id="rId9"/>
+    <sheet name="Pasta térmica" sheetId="11" r:id="rId10"/>
+    <sheet name="Gabinetes" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="58">
   <si>
     <t>Precio</t>
   </si>
@@ -95,9 +96,6 @@
     <t>B550M DS3H</t>
   </si>
   <si>
-    <t>B650 Aorus Pro AX</t>
-  </si>
-  <si>
     <t>XPG</t>
   </si>
   <si>
@@ -174,6 +172,54 @@
   </si>
   <si>
     <t>CX650M</t>
+  </si>
+  <si>
+    <t>definitivo</t>
+  </si>
+  <si>
+    <t>B650 Aorus Pro AX rev 1.x</t>
+  </si>
+  <si>
+    <t>Tienda</t>
+  </si>
+  <si>
+    <t>Cyberpuerta</t>
+  </si>
+  <si>
+    <t>Crucial</t>
+  </si>
+  <si>
+    <t>CT1000P3PSSD 1TB</t>
+  </si>
+  <si>
+    <t>Precio unitario</t>
+  </si>
+  <si>
+    <t>Unidades</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>id_Secundario</t>
+  </si>
+  <si>
+    <t>Barracuda 8 TB</t>
+  </si>
+  <si>
+    <t>RM750e</t>
+  </si>
+  <si>
+    <t>MSI</t>
+  </si>
+  <si>
+    <t>RXT 4070 Ti</t>
+  </si>
+  <si>
+    <t>Fractal Design</t>
+  </si>
+  <si>
+    <t>Torrent Compact White</t>
   </si>
 </sst>
 </file>
@@ -525,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46662DF8-4627-431D-B609-218377683739}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,12 +583,13 @@
     <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -550,31 +597,34 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>31</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>32</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>33</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>34</v>
       </c>
-      <c r="I1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -593,14 +643,17 @@
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="I2">
+      <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -619,7 +672,7 @@
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="H3">
+      <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
@@ -628,8 +681,11 @@
       <c r="J3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -643,16 +699,57 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
         <v>1</v>
       </c>
       <c r="J4">
         <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -661,491 +758,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC19BF1B-512B-455D-A2C4-FFBDBE9C6829}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2">
-        <v>1339</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36715600-4E35-4A7F-ABA1-E861F2D5CF53}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2">
-        <v>2299</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3">
-        <v>3379</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4">
-        <v>6589</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE5EE3FC-6D6F-4742-890F-10E911C2474B}">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="17.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2">
-        <v>2599</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>5516</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4">
-        <v>6729</v>
-      </c>
-      <c r="E4">
-        <v>8289</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6726207-6C2E-4711-8BE6-238D89A1FD15}">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2">
-        <v>1179</v>
-      </c>
-      <c r="E2">
-        <v>1499</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3">
-        <v>2669</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4">
-        <v>1369</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83AE4235-3B40-4212-ACB9-0285D0993E56}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3">
-        <v>1259</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E04BEE-CCC2-4AFE-8172-B10B0C76AC20}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3">
-        <v>949</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16AAA772-630F-430E-AF83-D263AB52265C}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2">
-        <v>999</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0311FED-E502-43A6-A5ED-35089023F444}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2">
-        <v>12509</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B73A3108-9F90-49D9-B1DE-7C581DEFA9E4}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1177,13 +789,690 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
         <v>36</v>
-      </c>
-      <c r="C2" t="s">
-        <v>37</v>
       </c>
       <c r="D2">
         <v>739</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC19BF1B-512B-455D-A2C4-FFBDBE9C6829}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3">
+        <v>3259</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36715600-4E35-4A7F-ABA1-E861F2D5CF53}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>3379</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>6909</v>
+      </c>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE5EE3FC-6D6F-4742-890F-10E911C2474B}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2">
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>5516</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4">
+        <v>6729</v>
+      </c>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6726207-6C2E-4711-8BE6-238D89A1FD15}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>1179</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3">
+        <v>2669</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4">
+        <v>1369</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5">
+        <v>1289</v>
+      </c>
+      <c r="E5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <f>D5*F5</f>
+        <v>2578</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF53149-5C05-4F07-9FD7-991A1B57A860}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2">
+        <v>2369</v>
+      </c>
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <f>D2*F2</f>
+        <v>2369</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83AE4235-3B40-4212-ACB9-0285D0993E56}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2">
+        <v>899</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <f>D2*E2</f>
+        <v>899</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3">
+        <v>1211</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <f>D3*E3</f>
+        <v>2422</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E04BEE-CCC2-4AFE-8172-B10B0C76AC20}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4">
+        <v>1799</v>
+      </c>
+      <c r="E4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16AAA772-630F-430E-AF83-D263AB52265C}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2">
+        <v>999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0311FED-E502-43A6-A5ED-35089023F444}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2">
+        <v>12509</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3">
+        <v>19349</v>
+      </c>
+      <c r="E3" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/Presupuesto PC.xlsx
+++ b/data-raw/Presupuesto PC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Allan\Documents\Git\Testing_repo\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\al-jo\Git\Testing_repo\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC9283B-4017-4DC3-8030-AFB5E506637B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9DA5FD-EC67-48B6-841A-1DF987BBDEE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="662" xr2:uid="{8D9E2E17-DEC7-4B78-BFDD-9F2DE1D101B3}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="60">
   <si>
     <t>Precio</t>
   </si>
@@ -220,6 +220,12 @@
   </si>
   <si>
     <t>Torrent Compact White</t>
+  </si>
+  <si>
+    <t>B650M Aorus Elite AX</t>
+  </si>
+  <si>
+    <t>faltantes</t>
   </si>
 </sst>
 </file>
@@ -275,9 +281,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -315,7 +321,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -421,7 +427,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -563,7 +569,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -571,13 +577,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46662DF8-4627-431D-B609-218377683739}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
@@ -752,6 +758,20 @@
         <v>2</v>
       </c>
     </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -765,7 +785,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -811,7 +831,7 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
@@ -869,10 +889,10 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
@@ -934,7 +954,7 @@
         <v>13</v>
       </c>
       <c r="D4">
-        <v>6909</v>
+        <v>5929</v>
       </c>
       <c r="E4" t="s">
         <v>45</v>
@@ -947,13 +967,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE5EE3FC-6D6F-4742-890F-10E911C2474B}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
@@ -1024,6 +1044,23 @@
         <v>45</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5">
+        <v>4509</v>
+      </c>
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1035,7 +1072,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
@@ -1155,7 +1192,7 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -1220,7 +1257,7 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.85546875" bestFit="1" customWidth="1"/>
@@ -1302,7 +1339,7 @@
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -1382,7 +1419,7 @@
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1425,7 +1462,7 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">

--- a/data-raw/Presupuesto PC.xlsx
+++ b/data-raw/Presupuesto PC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\al-jo\Git\Testing_repo\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9DA5FD-EC67-48B6-841A-1DF987BBDEE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB74C4BC-6602-4813-A738-FF83BBDF9F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="662" xr2:uid="{8D9E2E17-DEC7-4B78-BFDD-9F2DE1D101B3}"/>
+    <workbookView xWindow="-120" yWindow="-21720" windowWidth="38640" windowHeight="21840" tabRatio="662" xr2:uid="{8D9E2E17-DEC7-4B78-BFDD-9F2DE1D101B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Ensambles" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="64">
   <si>
     <t>Precio</t>
   </si>
@@ -225,7 +225,19 @@
     <t>B650M Aorus Elite AX</t>
   </si>
   <si>
-    <t>faltantes</t>
+    <t>B650M Aorus Elite</t>
+  </si>
+  <si>
+    <t>B650 Aorus Elite AX</t>
+  </si>
+  <si>
+    <t>faltantes_1</t>
+  </si>
+  <si>
+    <t>faltantes_2</t>
+  </si>
+  <si>
+    <t>faltantes_3</t>
   </si>
 </sst>
 </file>
@@ -577,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46662DF8-4627-431D-B609-218377683739}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,7 +772,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -769,6 +781,34 @@
         <v>4</v>
       </c>
       <c r="K6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="K8">
         <v>2</v>
       </c>
     </row>
@@ -889,7 +929,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -954,7 +994,7 @@
         <v>13</v>
       </c>
       <c r="D4">
-        <v>5929</v>
+        <v>6739</v>
       </c>
       <c r="E4" t="s">
         <v>45</v>
@@ -967,10 +1007,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE5EE3FC-6D6F-4742-890F-10E911C2474B}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1052,12 +1092,46 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5">
+        <v>4439</v>
+      </c>
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
         <v>58</v>
       </c>
-      <c r="D5">
-        <v>4509</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D6">
+        <v>5629</v>
+      </c>
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7">
+        <v>4769</v>
+      </c>
+      <c r="E7" t="s">
         <v>45</v>
       </c>
     </row>
